--- a/LOT_MGMT/rough_notes/lot_management_rough_exmple.xlsx
+++ b/LOT_MGMT/rough_notes/lot_management_rough_exmple.xlsx
@@ -176,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,15 +185,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,7 +316,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
@@ -465,30 +461,6 @@
         <f aca="false">F5*E5</f>
         <v>5000</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -510,7 +482,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,7 +513,7 @@
       <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -922,7 +894,8 @@
         <v>50</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>967.5</v>
+        <f aca="false">(G10+C11+D11)/F11</f>
+        <v>963.333333333333</v>
       </c>
       <c r="F11" s="3" t="n">
         <f aca="false">F10+A11</f>
@@ -930,7 +903,7 @@
       </c>
       <c r="G11" s="2" t="n">
         <f aca="false">E11*F11</f>
-        <v>29025</v>
+        <v>28900</v>
       </c>
       <c r="H11" s="2" t="n">
         <f aca="false">H10-C11-D11</f>
@@ -938,14 +911,14 @@
       </c>
       <c r="I11" s="2" t="n">
         <f aca="false">H11+G11</f>
-        <v>40775</v>
+        <v>40650</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>550</v>
       </c>
       <c r="K11" s="2" t="n">
         <f aca="false">I11-I10</f>
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
